--- a/00Temporal/operativos/Los Chillos.xlsx
+++ b/00Temporal/operativos/Los Chillos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>ZONA LOS CHILLOS</t>
   </si>
@@ -121,6 +121,24 @@
   </si>
   <si>
     <t xml:space="preserve">Aprobado por: </t>
+  </si>
+  <si>
+    <t>f inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f fin </t>
+  </si>
+  <si>
+    <t>complejidad</t>
+  </si>
+  <si>
+    <t>ordenanza</t>
+  </si>
+  <si>
+    <t>zonal</t>
+  </si>
+  <si>
+    <t>responsable</t>
   </si>
 </sst>
 </file>
@@ -457,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -586,6 +604,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -960,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:H18"/>
+      <selection activeCell="I13" sqref="I13:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1481,7 +1500,7 @@
     <col min="16137" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>21</v>
       </c>
@@ -1495,7 +1514,7 @@
       <c r="G1" s="31"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
       <c r="B2" s="33"/>
       <c r="C2" s="34"/>
@@ -1505,7 +1524,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
       <c r="B3" s="36" t="s">
         <v>1</v>
@@ -1525,7 +1544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="28"/>
       <c r="B4" s="36" t="s">
         <v>6</v>
@@ -1541,7 +1560,7 @@
       <c r="G4" s="41"/>
       <c r="H4" s="40"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="27"/>
       <c r="C5" s="4" t="s">
@@ -1554,8 +1573,26 @@
       <c r="F5" s="39"/>
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>1</v>
       </c>
@@ -1580,8 +1617,26 @@
       <c r="H6" s="25" t="s">
         <v>26</v>
       </c>
+      <c r="I6" s="46">
+        <v>43011.583333333336</v>
+      </c>
+      <c r="J6" s="46">
+        <v>43011.75</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>7</v>
+      </c>
+      <c r="N6" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>2</v>
       </c>
@@ -1606,8 +1661,26 @@
       <c r="H7" s="26" t="s">
         <v>27</v>
       </c>
+      <c r="I7" s="46">
+        <v>43013.416666666664</v>
+      </c>
+      <c r="J7" s="46">
+        <v>43013.583333333336</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>7</v>
+      </c>
+      <c r="N7" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>3</v>
       </c>
@@ -1632,8 +1705,26 @@
       <c r="H8" s="25" t="s">
         <v>26</v>
       </c>
+      <c r="I8" s="46">
+        <v>43019.583333333336</v>
+      </c>
+      <c r="J8" s="46">
+        <v>43019.75</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7</v>
+      </c>
+      <c r="N8" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>4</v>
       </c>
@@ -1658,8 +1749,26 @@
       <c r="H9" s="26" t="s">
         <v>27</v>
       </c>
+      <c r="I9" s="46">
+        <v>43022.541666666664</v>
+      </c>
+      <c r="J9" s="46">
+        <v>43022.833333333336</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7</v>
+      </c>
+      <c r="N9" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>5</v>
       </c>
@@ -1684,8 +1793,26 @@
       <c r="H10" s="26" t="s">
         <v>27</v>
       </c>
+      <c r="I10" s="46">
+        <v>43020.666666666664</v>
+      </c>
+      <c r="J10" s="46">
+        <v>43020.833333333336</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7</v>
+      </c>
+      <c r="N10" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>6</v>
       </c>
@@ -1710,8 +1837,26 @@
       <c r="H11" s="26" t="s">
         <v>27</v>
       </c>
+      <c r="I11" s="46">
+        <v>43026.625</v>
+      </c>
+      <c r="J11" s="46">
+        <v>43026.791666666664</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>7</v>
+      </c>
+      <c r="N11" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>7</v>
       </c>
@@ -1736,8 +1881,26 @@
       <c r="H12" s="26" t="s">
         <v>27</v>
       </c>
+      <c r="I12" s="46">
+        <v>43028.791666666664</v>
+      </c>
+      <c r="J12" s="46">
+        <v>43028</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>7</v>
+      </c>
+      <c r="N12" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
@@ -1749,8 +1912,10 @@
       <c r="H13" s="21">
         <v>4</v>
       </c>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="E14" s="5"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9" t="s">
@@ -1759,9 +1924,17 @@
       <c r="H14" s="22">
         <v>7</v>
       </c>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F15" s="1"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
     </row>
     <row r="17" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
